--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/INVENTARIO HERRADURA agosto.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/INVENTARIO HERRADURA agosto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capturas\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL   ARCHIVO   2 0 2 3\CENTRAL #08  AGOSTO  2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6915" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RES" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SALCHI!$A$3:$H$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VARIOS!$A$2:$H$38</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -367,11 +367,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,8 +588,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,6 +607,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -805,6 +819,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1135,7 @@
         <v>98</v>
       </c>
       <c r="D1" s="68"/>
-      <c r="E1" s="69">
+      <c r="E1" s="73">
         <v>45174</v>
       </c>
     </row>
@@ -4406,8 +4426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4422,7 +4442,7 @@
       <c r="A1" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="69">
+      <c r="C1" s="74">
         <v>45174</v>
       </c>
       <c r="D1" s="69"/>
